--- a/output/PCA/fish and scats/Nut_loadings_PCs_fish_clean_scats_nopup_coda_rob.xlsx
+++ b/output/PCA/fish and scats/Nut_loadings_PCs_fish_clean_scats_nopup_coda_rob.xlsx
@@ -14,40 +14,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t xml:space="preserve">Comp.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp.12</t>
+    <t xml:space="preserve">PC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC12</t>
   </si>
   <si>
     <t xml:space="preserve">Nutrient</t>

--- a/output/PCA/fish and scats/Nut_loadings_PCs_fish_clean_scats_nopup_coda_rob.xlsx
+++ b/output/PCA/fish and scats/Nut_loadings_PCs_fish_clean_scats_nopup_coda_rob.xlsx
@@ -470,34 +470,34 @@
         <v>-0.348729237525481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.345725803532734</v>
+        <v>0.345725803532735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.088550410578894</v>
+        <v>0.0885504105788932</v>
       </c>
       <c r="E2" t="n">
         <v>0.645641396894745</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0926228990455834</v>
+        <v>-0.0926228990455838</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0458444384747358</v>
+        <v>0.0458444384747356</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.100829871591185</v>
+        <v>-0.100829871591184</v>
       </c>
       <c r="I2" t="n">
-        <v>0.273389635337803</v>
+        <v>0.273389635337805</v>
       </c>
       <c r="J2" t="n">
-        <v>0.102458698555105</v>
+        <v>0.102458698555101</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00829855228015747</v>
+        <v>-0.0082985522801579</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00992503929996689</v>
+        <v>0.00992503929996702</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -511,28 +511,28 @@
         <v>-0.424361853552738</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0697646867990252</v>
+        <v>-0.0697646867990254</v>
       </c>
       <c r="D3" t="n">
         <v>-0.190373959140597</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.120608605113292</v>
+        <v>-0.120608605113293</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0943015058829736</v>
+        <v>-0.0943015058829738</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0149941970594499</v>
+        <v>0.0149941970594502</v>
       </c>
       <c r="H3" t="n">
         <v>-0.314771858659264</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0896376194337611</v>
+        <v>-0.0896376194337644</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.317558008871092</v>
+        <v>-0.317558008871091</v>
       </c>
       <c r="K3" t="n">
         <v>-0.317234640459857</v>
@@ -561,25 +561,25 @@
         <v>-0.167470600021893</v>
       </c>
       <c r="F4" t="n">
-        <v>0.828292527584516</v>
+        <v>0.828292527584517</v>
       </c>
       <c r="G4" t="n">
-        <v>0.173714348011862</v>
+        <v>0.17371434801186</v>
       </c>
       <c r="H4" t="n">
-        <v>0.125130000007903</v>
+        <v>0.125130000007901</v>
       </c>
       <c r="I4" t="n">
         <v>0.133509859845928</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0265918752997515</v>
+        <v>0.0265918752997494</v>
       </c>
       <c r="K4" t="n">
-        <v>0.060205306484177</v>
+        <v>0.0602053064841773</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00788614118735335</v>
+        <v>0.00788614118735395</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -590,37 +590,37 @@
         <v>-0.21905212317127</v>
       </c>
       <c r="B5" t="n">
-        <v>0.559378146969178</v>
+        <v>0.559378146969177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.467602958964097</v>
+        <v>0.467602958964096</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0066852231713483</v>
+        <v>-0.00668522317134867</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00311138344831048</v>
+        <v>0.00311138344831055</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0797363354027679</v>
+        <v>0.079736335402767</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0394638424367431</v>
+        <v>0.039463842436743</v>
       </c>
       <c r="H5" t="n">
         <v>-0.524733932831121</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0416869811553577</v>
+        <v>0.041686981155357</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.168827100268864</v>
+        <v>-0.168827100268866</v>
       </c>
       <c r="K5" t="n">
         <v>0.172152282732408</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0185606577429265</v>
+        <v>0.0185606577429269</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
@@ -637,31 +637,31 @@
         <v>-0.504692498176758</v>
       </c>
       <c r="D6" t="n">
-        <v>0.385522798392937</v>
+        <v>0.385522798392936</v>
       </c>
       <c r="E6" t="n">
-        <v>0.476321085479524</v>
+        <v>0.476321085479525</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0297335692825466</v>
+        <v>-0.0297335692825469</v>
       </c>
       <c r="G6" t="n">
         <v>0.108578548412569</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.032601512048073</v>
+        <v>-0.0326015120480734</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.26127976874158</v>
+        <v>-0.261279768741579</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0619852843679752</v>
+        <v>0.0619852843679794</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.260676498155464</v>
+        <v>-0.260676498155465</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0437054642822511</v>
+        <v>0.0437054642822503</v>
       </c>
       <c r="M6" t="s">
         <v>17</v>
@@ -684,19 +684,19 @@
         <v>-0.163499684133466</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0872158979985387</v>
+        <v>0.0872158979985383</v>
       </c>
       <c r="G7" t="n">
         <v>-0.29595910686601</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.075207489249935</v>
+        <v>-0.075207489249937</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.44585185642334</v>
+        <v>-0.445851856423342</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.155006259865792</v>
+        <v>-0.155006259865786</v>
       </c>
       <c r="K7" t="n">
         <v>0.186683493849471</v>
@@ -713,10 +713,10 @@
         <v>-0.0812372554598493</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0505822037270452</v>
+        <v>0.050582203727045</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.176319559747337</v>
+        <v>-0.176319559747338</v>
       </c>
       <c r="D8" t="n">
         <v>-0.143374615769345</v>
@@ -725,7 +725,7 @@
         <v>0.0485296793312311</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.217113277740272</v>
+        <v>-0.217113277740271</v>
       </c>
       <c r="G8" t="n">
         <v>0.42370393168445</v>
@@ -734,16 +734,16 @@
         <v>0.312595753482015</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0779902470442766</v>
+        <v>0.0779902470442761</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0620227249411011</v>
+        <v>-0.0620227249411024</v>
       </c>
       <c r="K8" t="n">
         <v>0.665473276711551</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.287672719326263</v>
+        <v>-0.287672719326262</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
@@ -754,37 +754,37 @@
         <v>-0.244420575441462</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00868781746472046</v>
+        <v>0.00868781746472035</v>
       </c>
       <c r="C9" t="n">
         <v>-0.144864618857192</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0974568063079849</v>
+        <v>0.097456806307985</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0222003300135385</v>
+        <v>-0.0222003300135382</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0938971195538238</v>
+        <v>-0.0938971195538241</v>
       </c>
       <c r="G9" t="n">
         <v>-0.768985398653677</v>
       </c>
       <c r="H9" t="n">
-        <v>0.137015279015179</v>
+        <v>0.137015279015181</v>
       </c>
       <c r="I9" t="n">
-        <v>0.428156779525254</v>
+        <v>0.428156779525253</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0190889774724555</v>
+        <v>0.0190889774724488</v>
       </c>
       <c r="K9" t="n">
         <v>0.168101053322259</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0376112420864476</v>
+        <v>-0.0376112420864472</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
@@ -798,34 +798,34 @@
         <v>0.314046630425265</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.300749270533219</v>
+        <v>-0.30074927053322</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.478705024849841</v>
+        <v>-0.47870502484984</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0963172283433933</v>
+        <v>-0.0963172283433938</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0955777243025751</v>
+        <v>0.0955777243025756</v>
       </c>
       <c r="G10" t="n">
-        <v>0.162972990663794</v>
+        <v>0.162972990663793</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0414673306685939</v>
+        <v>0.041467330668596</v>
       </c>
       <c r="I10" t="n">
         <v>0.453579621905387</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.028484014961732</v>
+        <v>-0.0284840149617378</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.37520946142522</v>
+        <v>-0.375209461425221</v>
       </c>
       <c r="L10" t="n">
-        <v>0.115185687879596</v>
+        <v>0.115185687879597</v>
       </c>
       <c r="M10" t="s">
         <v>21</v>
@@ -839,13 +839,13 @@
         <v>-0.139066944658339</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.052681534971601</v>
+        <v>-0.0526815349716011</v>
       </c>
       <c r="D11" t="n">
-        <v>0.270196581740532</v>
+        <v>0.270196581740533</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.466667165436221</v>
+        <v>-0.46666716543622</v>
       </c>
       <c r="F11" t="n">
         <v>-0.336496015639078</v>
@@ -854,16 +854,16 @@
         <v>0.181344987803237</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.294709770327394</v>
+        <v>-0.294709770327393</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0788754524624161</v>
+        <v>0.0788754524624263</v>
       </c>
       <c r="J11" t="n">
-        <v>0.59512300013507</v>
+        <v>0.595123000135069</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.00938051655425199</v>
+        <v>-0.00938051655425182</v>
       </c>
       <c r="L11" t="n">
         <v>0.121573453714535</v>
@@ -883,28 +883,28 @@
         <v>-0.0938468622912339</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.224221339465413</v>
+        <v>-0.224221339465412</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0300714297274595</v>
+        <v>-0.0300714297274594</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0861444826415681</v>
+        <v>-0.0861444826415687</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.00385434985889333</v>
+        <v>-0.00385434985889273</v>
       </c>
       <c r="H12" t="n">
         <v>-0.0827023609282847</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2095347425567</v>
+        <v>-0.209534742556705</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.336112238423504</v>
+        <v>-0.336112238423501</v>
       </c>
       <c r="K12" t="n">
-        <v>0.14653532703489</v>
+        <v>0.146535327034889</v>
       </c>
       <c r="L12" t="n">
         <v>0.734961277717026</v>
@@ -915,13 +915,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.00593120887614993</v>
+        <v>-0.00593120887614994</v>
       </c>
       <c r="B13" t="n">
-        <v>0.113846926944121</v>
+        <v>0.113846926944122</v>
       </c>
       <c r="C13" t="n">
-        <v>0.414566788545079</v>
+        <v>0.41456678854508</v>
       </c>
       <c r="D13" t="n">
         <v>0.288313641947756</v>
@@ -930,25 +930,25 @@
         <v>-0.212166274079181</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.277619663396843</v>
+        <v>-0.277619663396842</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0873221169905388</v>
+        <v>0.0873221169905392</v>
       </c>
       <c r="H13" t="n">
         <v>0.568388859303259</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0537296786875247</v>
+        <v>-0.0537296786875309</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.271665177670729</v>
+        <v>-0.271665177670728</v>
       </c>
       <c r="K13" t="n">
         <v>-0.352073257880965</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0408358159361724</v>
+        <v>0.0408358159361719</v>
       </c>
       <c r="M13" t="s">
         <v>24</v>
@@ -959,16 +959,16 @@
         <v>-0.166068921493039</v>
       </c>
       <c r="B14" t="n">
-        <v>0.031609867991026</v>
+        <v>0.0316098679910259</v>
       </c>
       <c r="C14" t="n">
         <v>0.234794320274833</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.495571676916021</v>
+        <v>-0.495571676916022</v>
       </c>
       <c r="E14" t="n">
-        <v>0.105397771714633</v>
+        <v>0.105397771714632</v>
       </c>
       <c r="F14" t="n">
         <v>0.137106047894291</v>
@@ -977,19 +977,19 @@
         <v>-0.169140546158798</v>
       </c>
       <c r="H14" t="n">
-        <v>0.240959573158307</v>
+        <v>0.240959573158305</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.427154911433517</v>
+        <v>-0.42715491143351</v>
       </c>
       <c r="J14" t="n">
-        <v>0.534427689172458</v>
+        <v>0.534427689172464</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0762778133788384</v>
+        <v>-0.076277813378837</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0575309986789454</v>
+        <v>-0.0575309986789463</v>
       </c>
       <c r="M14" t="s">
         <v>25</v>
